--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W20_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W20_H200_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5386996904024768</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1</v>
-      </c>
+        <v>0.5495495495495496</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9508196721311475</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5255255255255256</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6877470355731226</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4354354354354354</v>
+        <v>0.4624624624624625</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1563019135824809</v>
+        <v>0.1825461694580695</v>
       </c>
       <c r="J2" t="n">
-        <v>2080.819216307005</v>
+        <v>2459.098414109896</v>
       </c>
       <c r="K2" t="n">
-        <v>6076236.362604619</v>
+        <v>8653572.04618606</v>
       </c>
       <c r="L2" t="n">
-        <v>2465.002304786878</v>
+        <v>2941.695437360241</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1297416951463586</v>
+        <v>-0.608940233578851</v>
       </c>
     </row>
   </sheetData>
